--- a/Output/Relatorio-Erros-1FR329083.xlsx
+++ b/Output/Relatorio-Erros-1FR329083.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F2EEDA-1B9D-4F4F-8A65-0211F4F663B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A590F58-30AB-46BE-9546-A8191F9AD009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3EFE2C8C-CD49-4FEE-A0CE-E44F5629E281}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-1FR329083.xlsx
+++ b/Output/Relatorio-Erros-1FR329083.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC58669-69C6-4ADC-8ABA-2FA79D8F12BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E5200F-AC4F-4729-8ED0-1C88BB00D334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{93C9116E-7126-4015-9D11-77956BD5D97E}"/>
   </bookViews>
